--- a/Code/Results/Cases/Case_6_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_57/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.6860563729339</v>
+        <v>17.14260909405936</v>
       </c>
       <c r="C2">
-        <v>18.98266065951294</v>
+        <v>10.58348696826227</v>
       </c>
       <c r="D2">
-        <v>3.97347531464802</v>
+        <v>4.554217287177428</v>
       </c>
       <c r="E2">
-        <v>30.23648393267284</v>
+        <v>29.38633899821699</v>
       </c>
       <c r="F2">
-        <v>38.76251717641179</v>
+        <v>34.16371116137707</v>
       </c>
       <c r="G2">
-        <v>2.035790796207533</v>
+        <v>2.087380432732596</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>22.84729235190248</v>
+        <v>15.25459365836494</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.65727640360203</v>
+        <v>14.97195292177106</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.78576696556419</v>
+        <v>15.90511099674556</v>
       </c>
       <c r="C3">
-        <v>17.57782360096609</v>
+        <v>9.820315283642401</v>
       </c>
       <c r="D3">
-        <v>4.017072542470713</v>
+        <v>4.64280314482007</v>
       </c>
       <c r="E3">
-        <v>27.90843950785564</v>
+        <v>27.19511140505668</v>
       </c>
       <c r="F3">
-        <v>36.53778896715344</v>
+        <v>32.75259128013375</v>
       </c>
       <c r="G3">
-        <v>2.049718351565261</v>
+        <v>2.09750861754229</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>21.16937944013961</v>
+        <v>14.16392410430811</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.83183288070101</v>
+        <v>15.05274225486374</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.56742945182398</v>
+        <v>15.10821458161384</v>
       </c>
       <c r="C4">
-        <v>16.67797877870501</v>
+        <v>9.329330614003146</v>
       </c>
       <c r="D4">
-        <v>4.048595775972355</v>
+        <v>4.697113826180653</v>
       </c>
       <c r="E4">
-        <v>26.42810009224404</v>
+        <v>25.79263138950953</v>
       </c>
       <c r="F4">
-        <v>35.16258789066275</v>
+        <v>31.89031112517808</v>
       </c>
       <c r="G4">
-        <v>2.058369428718315</v>
+        <v>2.103848387508273</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.09335655841098</v>
+        <v>13.46112384616475</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.94499209212667</v>
+        <v>15.10825620499501</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.05759063528462</v>
+        <v>14.77400643682095</v>
       </c>
       <c r="C5">
-        <v>16.30157215904912</v>
+        <v>9.12349445275745</v>
       </c>
       <c r="D5">
-        <v>4.062500711094365</v>
+        <v>4.719255604860192</v>
       </c>
       <c r="E5">
-        <v>25.81124211217277</v>
+        <v>25.2062719070996</v>
       </c>
       <c r="F5">
-        <v>34.60000394365789</v>
+        <v>31.5402224015483</v>
       </c>
       <c r="G5">
-        <v>2.061925956177871</v>
+        <v>2.106465181595679</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.64297904462258</v>
+        <v>13.1662393185594</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.99251577381518</v>
+        <v>15.13228851541651</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.97211500024855</v>
+        <v>14.71793578181829</v>
       </c>
       <c r="C6">
-        <v>16.23847421306657</v>
+        <v>9.088964397521384</v>
       </c>
       <c r="D6">
-        <v>4.064869965454329</v>
+        <v>4.722933659929756</v>
       </c>
       <c r="E6">
-        <v>25.70796970367387</v>
+        <v>25.10799769305054</v>
       </c>
       <c r="F6">
-        <v>34.50646321671086</v>
+        <v>31.48217727613143</v>
       </c>
       <c r="G6">
-        <v>2.062518561373221</v>
+        <v>2.106901787398959</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.56746576384864</v>
+        <v>13.11675690661557</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.00048978567077</v>
+        <v>15.13636213406898</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56060815240387</v>
+        <v>15.10374584200192</v>
       </c>
       <c r="C7">
-        <v>16.67294217834673</v>
+        <v>9.326578099489742</v>
       </c>
       <c r="D7">
-        <v>4.048779180764128</v>
+        <v>4.697412360194935</v>
       </c>
       <c r="E7">
-        <v>26.41983702209303</v>
+        <v>25.78478423411509</v>
       </c>
       <c r="F7">
-        <v>35.15500919395101</v>
+        <v>31.88558407706842</v>
       </c>
       <c r="G7">
-        <v>2.058417259618436</v>
+        <v>2.103883540140704</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.08733122253839</v>
+        <v>13.45718149840765</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.94562741485713</v>
+        <v>15.10857469950789</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.04128381488515</v>
+        <v>16.7235197257903</v>
       </c>
       <c r="C8">
-        <v>18.50579091562543</v>
+        <v>10.32491514365353</v>
       </c>
       <c r="D8">
-        <v>3.987431964011714</v>
+        <v>4.584797476462914</v>
       </c>
       <c r="E8">
-        <v>29.44382321763928</v>
+        <v>28.64233686838496</v>
       </c>
       <c r="F8">
-        <v>37.99736635776531</v>
+        <v>33.67642794131935</v>
       </c>
       <c r="G8">
-        <v>2.040576290824124</v>
+        <v>2.090849313291342</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.27800857330237</v>
+        <v>14.8853069874124</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.71616071803662</v>
+        <v>14.99853466021395</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.51753905922907</v>
+        <v>19.61336252835083</v>
       </c>
       <c r="C9">
-        <v>21.82196341421448</v>
+        <v>12.11115199138132</v>
       </c>
       <c r="D9">
-        <v>3.912275075939498</v>
+        <v>4.361825781113359</v>
       </c>
       <c r="E9">
-        <v>35.01258270703364</v>
+        <v>33.81801313253987</v>
       </c>
       <c r="F9">
-        <v>43.50280733356935</v>
+        <v>37.21369783774971</v>
       </c>
       <c r="G9">
-        <v>2.006057297789665</v>
+        <v>2.066105373665479</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>26.2302230336773</v>
+        <v>17.43082404111333</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.31883629573272</v>
+        <v>14.83346829010965</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.6040119274433</v>
+        <v>21.57405283824939</v>
       </c>
       <c r="C10">
-        <v>24.11809964444113</v>
+        <v>13.32860068519959</v>
       </c>
       <c r="D10">
-        <v>3.897290820555436</v>
+        <v>4.194432700304119</v>
       </c>
       <c r="E10">
-        <v>38.95623002679839</v>
+        <v>37.39912960485927</v>
       </c>
       <c r="F10">
-        <v>47.64616286761738</v>
+        <v>39.82419306739583</v>
       </c>
       <c r="G10">
-        <v>1.980439622129887</v>
+        <v>2.048194834062741</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>28.95652204003856</v>
+        <v>19.15760270865909</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.06823392219344</v>
+        <v>14.74918207918944</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.97401751061296</v>
+        <v>22.43396437211989</v>
       </c>
       <c r="C11">
-        <v>25.14050512368208</v>
+        <v>13.86434428816859</v>
       </c>
       <c r="D11">
-        <v>3.902895788779362</v>
+        <v>4.116941445127225</v>
       </c>
       <c r="E11">
-        <v>40.73953012487516</v>
+        <v>38.99073380714413</v>
       </c>
       <c r="F11">
-        <v>49.61388573323841</v>
+        <v>41.01550801660453</v>
       </c>
       <c r="G11">
-        <v>1.968573965584387</v>
+        <v>2.040044805977731</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>30.1673098805688</v>
+        <v>19.91510947421403</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.96599931472828</v>
+        <v>14.72046382827383</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.4889459331971</v>
+        <v>22.75530128986171</v>
       </c>
       <c r="C12">
-        <v>25.52536412335096</v>
+        <v>14.06486021350334</v>
       </c>
       <c r="D12">
-        <v>3.907195752292063</v>
+        <v>4.087352591013819</v>
       </c>
       <c r="E12">
-        <v>41.4156205979691</v>
+        <v>39.58910259302878</v>
       </c>
       <c r="F12">
-        <v>50.35947457922371</v>
+        <v>41.46742197561092</v>
       </c>
       <c r="G12">
-        <v>1.964033530371749</v>
+        <v>2.036952283932224</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>30.62252887968749</v>
+        <v>20.19822732254276</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.92928816196613</v>
+        <v>14.71112949300709</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.37819969059435</v>
+        <v>22.68628110590108</v>
       </c>
       <c r="C13">
-        <v>25.44256414630501</v>
+        <v>14.02177618185436</v>
       </c>
       <c r="D13">
-        <v>3.906165709488273</v>
+        <v>4.093736825407688</v>
       </c>
       <c r="E13">
-        <v>41.26993348463972</v>
+        <v>39.46040737828528</v>
       </c>
       <c r="F13">
-        <v>50.1988484284729</v>
+        <v>41.37005382250256</v>
       </c>
       <c r="G13">
-        <v>1.965013800605893</v>
+        <v>2.037618698013493</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>30.52461773466139</v>
+        <v>20.13741372624262</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.93709969832644</v>
+        <v>14.71306855034523</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.01645164463397</v>
+        <v>22.46048504156242</v>
       </c>
       <c r="C14">
-        <v>25.17220812835699</v>
+        <v>13.88088661044492</v>
       </c>
       <c r="D14">
-        <v>3.903203372883754</v>
+        <v>4.114512364904199</v>
       </c>
       <c r="E14">
-        <v>40.79512109579799</v>
+        <v>39.04004222653458</v>
       </c>
       <c r="F14">
-        <v>49.67520601348839</v>
+        <v>41.05266956917383</v>
       </c>
       <c r="G14">
-        <v>1.968201476216098</v>
+        <v>2.039790545610781</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>30.20482054608819</v>
+        <v>19.93847473566624</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.96293686813421</v>
+        <v>14.71966403201032</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.79440207979358</v>
+        <v>22.3216293929427</v>
       </c>
       <c r="C15">
-        <v>25.00633669568662</v>
+        <v>13.79428830728935</v>
       </c>
       <c r="D15">
-        <v>3.901685442167934</v>
+        <v>4.127204526192068</v>
       </c>
       <c r="E15">
-        <v>40.50446744158057</v>
+        <v>38.78202585163375</v>
       </c>
       <c r="F15">
-        <v>49.35457356959927</v>
+        <v>40.85837478085533</v>
       </c>
       <c r="G15">
-        <v>1.970147315115587</v>
+        <v>2.041119854599863</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>30.00854021608404</v>
+        <v>19.8161421116765</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.9790342517736</v>
+        <v>14.72390962612943</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.51387694322359</v>
+        <v>21.51723689866504</v>
       </c>
       <c r="C16">
-        <v>24.05090853063464</v>
+        <v>13.29324459507284</v>
       </c>
       <c r="D16">
-        <v>3.897206115443924</v>
+        <v>4.199465610205995</v>
       </c>
       <c r="E16">
-        <v>38.83965836003409</v>
+        <v>37.29444643964531</v>
       </c>
       <c r="F16">
-        <v>47.51753576175201</v>
+        <v>39.74643197101431</v>
       </c>
       <c r="G16">
-        <v>1.98120946365229</v>
+        <v>2.048726922140066</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>28.87687880130706</v>
+        <v>19.10755842552141</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.07517685176756</v>
+        <v>14.7512654429502</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.72026284645488</v>
+        <v>21.015775283958</v>
       </c>
       <c r="C17">
-        <v>23.45968438938443</v>
+        <v>12.98140068635072</v>
       </c>
       <c r="D17">
-        <v>3.897893641442129</v>
+        <v>4.243416199345415</v>
       </c>
       <c r="E17">
-        <v>37.81709971016846</v>
+        <v>36.37296264804536</v>
       </c>
       <c r="F17">
-        <v>46.38957183784389</v>
+        <v>39.06539455705755</v>
       </c>
       <c r="G17">
-        <v>1.987930702112896</v>
+        <v>2.05338904744528</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>28.1757200491274</v>
+        <v>18.6658875143167</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.13736934834726</v>
+        <v>14.77061702961497</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.26051912481666</v>
+        <v>20.72431320293865</v>
       </c>
       <c r="C18">
-        <v>23.11748370994958</v>
+        <v>12.80031821374381</v>
       </c>
       <c r="D18">
-        <v>3.899430590859541</v>
+        <v>4.268572324962339</v>
       </c>
       <c r="E18">
-        <v>37.22777716911268</v>
+        <v>35.83935109651134</v>
       </c>
       <c r="F18">
-        <v>45.75640442468539</v>
+        <v>38.67401426819679</v>
       </c>
       <c r="G18">
-        <v>1.991777811748405</v>
+        <v>2.056070753954066</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>27.76959567805851</v>
+        <v>18.40919347555111</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.17422579173254</v>
+        <v>14.78264281355568</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.1042669042136</v>
+        <v>20.62509920295058</v>
       </c>
       <c r="C19">
-        <v>23.00122851809624</v>
+        <v>12.73870492415834</v>
       </c>
       <c r="D19">
-        <v>3.900136375775497</v>
+        <v>4.277070110508963</v>
       </c>
       <c r="E19">
-        <v>37.02797911940722</v>
+        <v>35.65803216222696</v>
       </c>
       <c r="F19">
-        <v>45.552130458368</v>
+        <v>38.54155171680156</v>
       </c>
       <c r="G19">
-        <v>1.993077601845083</v>
+        <v>2.056978929997164</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>27.63157608274447</v>
+        <v>18.32181668167993</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.18688279643406</v>
+        <v>14.78686387596619</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.80507690073353</v>
+        <v>21.06946869254023</v>
       </c>
       <c r="C20">
-        <v>23.52283738651834</v>
+        <v>13.01477318400638</v>
       </c>
       <c r="D20">
-        <v>3.897699730276284</v>
+        <v>4.238750681908146</v>
       </c>
       <c r="E20">
-        <v>37.92605925158368</v>
+        <v>36.4714215478598</v>
       </c>
       <c r="F20">
-        <v>46.50972287102466</v>
+        <v>39.13785618487298</v>
       </c>
       <c r="G20">
-        <v>1.987217266159396</v>
+        <v>2.052892778175545</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>28.25064691946943</v>
+        <v>18.71317708089984</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.13063454402114</v>
+        <v>14.76846329823401</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.1228012506292</v>
+        <v>22.52692061577363</v>
       </c>
       <c r="C21">
-        <v>25.25167276842318</v>
+        <v>13.92233119838743</v>
       </c>
       <c r="D21">
-        <v>3.904010856639954</v>
+        <v>4.108417155736634</v>
       </c>
       <c r="E21">
-        <v>40.93454190087964</v>
+        <v>39.16362209675558</v>
       </c>
       <c r="F21">
-        <v>49.82898532052951</v>
+        <v>41.14586900384818</v>
       </c>
       <c r="G21">
-        <v>1.967266611354586</v>
+        <v>2.039152843838496</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>30.29883310557811</v>
+        <v>19.99700670612921</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.95529064423835</v>
+        <v>14.71768360541497</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.61571641879945</v>
+        <v>23.45460727425023</v>
       </c>
       <c r="C22">
-        <v>26.36870568087368</v>
+        <v>14.50186529918298</v>
       </c>
       <c r="D22">
-        <v>3.921073001367636</v>
+        <v>4.021783903576947</v>
       </c>
       <c r="E22">
-        <v>42.90694360278363</v>
+        <v>40.89847768772495</v>
       </c>
       <c r="F22">
-        <v>52.00206037369908</v>
+        <v>42.46303136478168</v>
       </c>
       <c r="G22">
-        <v>1.953941915715641</v>
+        <v>2.030132903575741</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>31.61893328349589</v>
+        <v>20.81447094333056</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.85257207615159</v>
+        <v>14.69356593108811</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.82051227445733</v>
+        <v>22.9616410525777</v>
       </c>
       <c r="C23">
-        <v>25.77335474824495</v>
+        <v>14.19371246051256</v>
       </c>
       <c r="D23">
-        <v>3.910630879418855</v>
+        <v>4.068172783209686</v>
       </c>
       <c r="E23">
-        <v>41.85273161414862</v>
+        <v>39.97441166144614</v>
       </c>
       <c r="F23">
-        <v>50.84125966335277</v>
+        <v>41.75948078929942</v>
       </c>
       <c r="G23">
-        <v>1.961086315455074</v>
+        <v>2.034952901939478</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>30.91569051903626</v>
+        <v>20.38004168915222</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.90618392988251</v>
+        <v>14.70555023445473</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.76674339469474</v>
+        <v>21.04520378399152</v>
       </c>
       <c r="C24">
-        <v>23.49429313781334</v>
+        <v>12.99969109978598</v>
       </c>
       <c r="D24">
-        <v>3.897783869881731</v>
+        <v>4.240860306328085</v>
       </c>
       <c r="E24">
-        <v>37.87680329551232</v>
+        <v>36.42692031088259</v>
       </c>
       <c r="F24">
-        <v>46.45540623951837</v>
+        <v>39.10509581001739</v>
       </c>
       <c r="G24">
-        <v>1.987539862362696</v>
+        <v>2.053117136753434</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>28.21678195326809</v>
+        <v>18.69180612225714</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.13367594165187</v>
+        <v>14.76943420757254</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.34496114895684</v>
+        <v>18.86109612844535</v>
       </c>
       <c r="C25">
-        <v>20.95189317957631</v>
+        <v>11.64535778423913</v>
       </c>
       <c r="D25">
-        <v>3.926609285513406</v>
+        <v>4.422596276594894</v>
       </c>
       <c r="E25">
-        <v>33.53810832588889</v>
+        <v>32.45991847396441</v>
       </c>
       <c r="F25">
-        <v>42.01921116909863</v>
+        <v>36.25477797293556</v>
       </c>
       <c r="G25">
-        <v>2.015395643751282</v>
+        <v>2.072733744025147</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>25.19483764971416</v>
+        <v>16.76832966930014</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.41985832261926</v>
+        <v>14.87211332130522</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.14260909405936</v>
+        <v>13.88047398969108</v>
       </c>
       <c r="C2">
-        <v>10.58348696826227</v>
+        <v>10.62843402452475</v>
       </c>
       <c r="D2">
-        <v>4.554217287177428</v>
+        <v>4.353632722786722</v>
       </c>
       <c r="E2">
-        <v>29.38633899821699</v>
+        <v>29.43422581130377</v>
       </c>
       <c r="F2">
-        <v>34.16371116137707</v>
+        <v>22.03257122703227</v>
       </c>
       <c r="G2">
-        <v>2.087380432732596</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>29.81674589316258</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.910814088153764</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.14615170132703</v>
       </c>
       <c r="K2">
-        <v>15.25459365836494</v>
+        <v>15.41245533731038</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.20138003494644</v>
       </c>
       <c r="N2">
-        <v>14.97195292177106</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.22567339882116</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.90511099674556</v>
+        <v>12.95668060970484</v>
       </c>
       <c r="C3">
-        <v>9.820315283642401</v>
+        <v>9.93327391591273</v>
       </c>
       <c r="D3">
-        <v>4.64280314482007</v>
+        <v>4.281285317853252</v>
       </c>
       <c r="E3">
-        <v>27.19511140505668</v>
+        <v>27.30585834591357</v>
       </c>
       <c r="F3">
-        <v>32.75259128013375</v>
+        <v>21.35977188400166</v>
       </c>
       <c r="G3">
-        <v>2.09750861754229</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>28.79058359359013</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.705475330580675</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.07727423014582</v>
       </c>
       <c r="K3">
-        <v>14.16392410430811</v>
+        <v>15.33645777091205</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.37552664972752</v>
       </c>
       <c r="N3">
-        <v>15.05274225486374</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.41686179174713</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.10821458161384</v>
+        <v>12.35406319058781</v>
       </c>
       <c r="C4">
-        <v>9.329330614003146</v>
+        <v>9.488315605512261</v>
       </c>
       <c r="D4">
-        <v>4.697113826180653</v>
+        <v>4.235764809285754</v>
       </c>
       <c r="E4">
-        <v>25.79263138950953</v>
+        <v>25.93570280437277</v>
       </c>
       <c r="F4">
-        <v>31.89031112517808</v>
+        <v>20.95002575182903</v>
       </c>
       <c r="G4">
-        <v>2.103848387508273</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>28.16269352476808</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.576192720792775</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.0397277734944</v>
       </c>
       <c r="K4">
-        <v>13.46112384616475</v>
+        <v>15.29564648485328</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.84080690013333</v>
       </c>
       <c r="N4">
-        <v>15.10825620499501</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.53575438298525</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.77400643682095</v>
+        <v>12.09375643383961</v>
       </c>
       <c r="C5">
-        <v>9.12349445275745</v>
+        <v>9.30989572318853</v>
       </c>
       <c r="D5">
-        <v>4.719255604860192</v>
+        <v>4.21808477153871</v>
       </c>
       <c r="E5">
-        <v>25.2062719070996</v>
+        <v>25.36102351359386</v>
       </c>
       <c r="F5">
-        <v>31.5402224015483</v>
+        <v>20.77406695225973</v>
       </c>
       <c r="G5">
-        <v>2.106465181595679</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>27.88943584705924</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.523249286261874</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.02235603286806</v>
       </c>
       <c r="K5">
-        <v>13.1662393185594</v>
+        <v>15.27291064274731</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.6150119421606</v>
       </c>
       <c r="N5">
-        <v>15.13228851541651</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.58340507092563</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.71793578181829</v>
+        <v>12.04292373628748</v>
       </c>
       <c r="C6">
-        <v>9.088964397521384</v>
+        <v>9.289161981659813</v>
       </c>
       <c r="D6">
-        <v>4.722933659929756</v>
+        <v>4.21652646176801</v>
       </c>
       <c r="E6">
-        <v>25.10799769305054</v>
+        <v>25.26447491080122</v>
       </c>
       <c r="F6">
-        <v>31.48217727613143</v>
+        <v>20.73268018704471</v>
       </c>
       <c r="G6">
-        <v>2.106901787398959</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>27.82184638144879</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.515321951491958</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.0155931570712</v>
       </c>
       <c r="K6">
-        <v>13.11675690661557</v>
+        <v>15.26002619507526</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.57595189692874</v>
       </c>
       <c r="N6">
-        <v>15.13636213406898</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.5898749325597</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.10374584200192</v>
+        <v>12.33174433763796</v>
       </c>
       <c r="C7">
-        <v>9.326578099489742</v>
+        <v>9.51038053149987</v>
       </c>
       <c r="D7">
-        <v>4.697412360194935</v>
+        <v>4.239339561301994</v>
       </c>
       <c r="E7">
-        <v>25.78478423411509</v>
+        <v>25.92764017002085</v>
       </c>
       <c r="F7">
-        <v>31.88558407706842</v>
+        <v>20.91455542657629</v>
       </c>
       <c r="G7">
-        <v>2.103883540140704</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>28.09884040552658</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.577530041704044</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.02873547065202</v>
       </c>
       <c r="K7">
-        <v>13.45718149840765</v>
+        <v>15.2702618797943</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.83472056062999</v>
       </c>
       <c r="N7">
-        <v>15.10857469950789</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.53242843333182</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.7235197257903</v>
+        <v>13.54622684127764</v>
       </c>
       <c r="C8">
-        <v>10.32491514365353</v>
+        <v>10.42235350600179</v>
       </c>
       <c r="D8">
-        <v>4.584797476462914</v>
+        <v>4.333994661622524</v>
       </c>
       <c r="E8">
-        <v>28.64233686838496</v>
+        <v>28.71278909135502</v>
       </c>
       <c r="F8">
-        <v>33.67642794131935</v>
+        <v>21.75777160371604</v>
       </c>
       <c r="G8">
-        <v>2.090849313291342</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>29.38621970021841</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.8425715718695</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.10730916527707</v>
       </c>
       <c r="K8">
-        <v>14.8853069874124</v>
+        <v>15.35205617081491</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.91856379390643</v>
       </c>
       <c r="N8">
-        <v>14.99853466021395</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.28623687940827</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.61336252835083</v>
+        <v>15.6794640843186</v>
       </c>
       <c r="C9">
-        <v>12.11115199138132</v>
+        <v>12.0299860752558</v>
       </c>
       <c r="D9">
-        <v>4.361825781113359</v>
+        <v>4.503552150569661</v>
       </c>
       <c r="E9">
-        <v>33.81801313253987</v>
+        <v>33.6869487920304</v>
       </c>
       <c r="F9">
-        <v>37.21369783774971</v>
+        <v>23.48737233122627</v>
       </c>
       <c r="G9">
-        <v>2.066105373665479</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>32.019370188766</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.336345825079003</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.31973158519542</v>
       </c>
       <c r="K9">
-        <v>17.43082404111333</v>
+        <v>15.60603181558302</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.83043311962393</v>
       </c>
       <c r="N9">
-        <v>14.83346829010965</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>11.82076265873976</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.57405283824939</v>
+        <v>17.07326981524001</v>
       </c>
       <c r="C10">
-        <v>13.32860068519959</v>
+        <v>13.13785413640865</v>
       </c>
       <c r="D10">
-        <v>4.194432700304119</v>
+        <v>4.623836998664936</v>
       </c>
       <c r="E10">
-        <v>37.39912960485927</v>
+        <v>37.06508131527485</v>
       </c>
       <c r="F10">
-        <v>39.82419306739583</v>
+        <v>24.74756377537349</v>
       </c>
       <c r="G10">
-        <v>2.048194834062741</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>33.9204740846296</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.687317966447003</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.49699123334878</v>
       </c>
       <c r="K10">
-        <v>19.15760270865909</v>
+        <v>15.81422161853921</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.10256566766026</v>
       </c>
       <c r="N10">
-        <v>14.74918207918944</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.481389617947</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.43396437211989</v>
+        <v>17.64999765887271</v>
       </c>
       <c r="C11">
-        <v>13.86434428816859</v>
+        <v>13.65320182482185</v>
       </c>
       <c r="D11">
-        <v>4.116941445127225</v>
+        <v>4.683327032829734</v>
       </c>
       <c r="E11">
-        <v>38.99073380714413</v>
+        <v>38.54635806655907</v>
       </c>
       <c r="F11">
-        <v>41.01550801660453</v>
+        <v>25.27578137317081</v>
       </c>
       <c r="G11">
-        <v>2.040044805977731</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>34.7026155743651</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.847161525743176</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.56736506894607</v>
       </c>
       <c r="K11">
-        <v>19.91510947421403</v>
+        <v>15.87805107383289</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>16.64962322003966</v>
       </c>
       <c r="N11">
-        <v>14.72046382827383</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.32173632841388</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.75530128986171</v>
+        <v>17.8757364277616</v>
       </c>
       <c r="C12">
-        <v>14.06486021350334</v>
+        <v>13.83015320842972</v>
       </c>
       <c r="D12">
-        <v>4.087352591013819</v>
+        <v>4.702303294860745</v>
       </c>
       <c r="E12">
-        <v>39.58910259302878</v>
+        <v>39.10035744004261</v>
       </c>
       <c r="F12">
-        <v>41.46742197561092</v>
+        <v>25.50018979529186</v>
       </c>
       <c r="G12">
-        <v>2.036952283932224</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>35.04199201809068</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.906119088638901</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.60382845915218</v>
       </c>
       <c r="K12">
-        <v>20.19822732254276</v>
+        <v>15.92441471854157</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.85492670576489</v>
       </c>
       <c r="N12">
-        <v>14.71112949300709</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.26437412097118</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.68628110590108</v>
+        <v>17.82974494888823</v>
       </c>
       <c r="C13">
-        <v>14.02177618185436</v>
+        <v>13.78906320615929</v>
       </c>
       <c r="D13">
-        <v>4.093736825407688</v>
+        <v>4.697558010262547</v>
       </c>
       <c r="E13">
-        <v>39.46040737828528</v>
+        <v>38.98145425605849</v>
       </c>
       <c r="F13">
-        <v>41.37005382250256</v>
+        <v>25.45668642836612</v>
       </c>
       <c r="G13">
-        <v>2.037618698013493</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>34.97750852344658</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.893128666494059</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.59770204019692</v>
       </c>
       <c r="K13">
-        <v>20.13741372624262</v>
+        <v>15.91855550461867</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>16.81129524117392</v>
       </c>
       <c r="N13">
-        <v>14.71306855034523</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.27734069365631</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.46048504156242</v>
+        <v>17.66969834710661</v>
       </c>
       <c r="C14">
-        <v>13.88088661044492</v>
+        <v>13.66648519175913</v>
       </c>
       <c r="D14">
-        <v>4.114512364904199</v>
+        <v>4.684608435849384</v>
       </c>
       <c r="E14">
-        <v>39.04004222653458</v>
+        <v>38.59211891838488</v>
       </c>
       <c r="F14">
-        <v>41.05266956917383</v>
+        <v>25.29630616847224</v>
       </c>
       <c r="G14">
-        <v>2.039790545610781</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>34.73421667842712</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.851880711629917</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.57109916328206</v>
       </c>
       <c r="K14">
-        <v>19.93847473566624</v>
+        <v>15.88362014695953</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>16.66676759440453</v>
       </c>
       <c r="N14">
-        <v>14.71966403201032</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>11.31727748399534</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.3216293929427</v>
+        <v>17.56621030328079</v>
       </c>
       <c r="C15">
-        <v>13.79428830728935</v>
+        <v>13.59727414577283</v>
       </c>
       <c r="D15">
-        <v>4.127204526192068</v>
+        <v>4.677966832867001</v>
       </c>
       <c r="E15">
-        <v>38.78202585163375</v>
+        <v>38.35252005739924</v>
       </c>
       <c r="F15">
-        <v>40.85837478085533</v>
+        <v>25.18844963813002</v>
       </c>
       <c r="G15">
-        <v>2.041119854599863</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>34.56800853259445</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.827274855215135</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.55142828127302</v>
       </c>
       <c r="K15">
-        <v>19.8161421116765</v>
+        <v>15.85412072353357</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>16.57691112533835</v>
       </c>
       <c r="N15">
-        <v>14.72390962612943</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.34053361264526</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.51723689866504</v>
+        <v>16.99343201232776</v>
       </c>
       <c r="C16">
-        <v>13.29324459507284</v>
+        <v>13.15714455323483</v>
       </c>
       <c r="D16">
-        <v>4.199465610205995</v>
+        <v>4.631048113508601</v>
       </c>
       <c r="E16">
-        <v>37.29444643964531</v>
+        <v>36.96577287156882</v>
       </c>
       <c r="F16">
-        <v>39.74643197101431</v>
+        <v>24.6308007336975</v>
       </c>
       <c r="G16">
-        <v>2.048726922140066</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>33.72247736326333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.681770305938175</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.46283792333307</v>
       </c>
       <c r="K16">
-        <v>19.10755842552141</v>
+        <v>15.74018887696836</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>16.05923812959576</v>
       </c>
       <c r="N16">
-        <v>14.7512654429502</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.48155639435153</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.015775283958</v>
+        <v>16.63306286784884</v>
       </c>
       <c r="C17">
-        <v>12.98140068635072</v>
+        <v>12.88290801969712</v>
       </c>
       <c r="D17">
-        <v>4.243416199345415</v>
+        <v>4.601837672987756</v>
       </c>
       <c r="E17">
-        <v>36.37296264804536</v>
+        <v>36.10141021542379</v>
       </c>
       <c r="F17">
-        <v>39.06539455705755</v>
+        <v>24.28863122291854</v>
       </c>
       <c r="G17">
-        <v>2.05338904744528</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>33.20297342983237</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.592178928564547</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.41021421104866</v>
       </c>
       <c r="K17">
-        <v>18.6658875143167</v>
+        <v>15.67268420376158</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>15.73456795016714</v>
       </c>
       <c r="N17">
-        <v>14.77061702961497</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>11.56818654171903</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.72431320293865</v>
+        <v>16.43539106658037</v>
       </c>
       <c r="C18">
-        <v>12.80031821374381</v>
+        <v>12.70690453028485</v>
       </c>
       <c r="D18">
-        <v>4.268572324962339</v>
+        <v>4.581493853109444</v>
       </c>
       <c r="E18">
-        <v>35.83935109651134</v>
+        <v>35.5995063693418</v>
       </c>
       <c r="F18">
-        <v>38.67401426819679</v>
+        <v>24.11725539075719</v>
       </c>
       <c r="G18">
-        <v>2.056070753954066</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>32.94940855775639</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.538157641375407</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.38962335853831</v>
       </c>
       <c r="K18">
-        <v>18.40919347555111</v>
+        <v>15.65603012991783</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>15.5473784083192</v>
       </c>
       <c r="N18">
-        <v>14.78264281355568</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>11.6211788647311</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.62509920295058</v>
+        <v>16.35793765456593</v>
       </c>
       <c r="C19">
-        <v>12.73870492415834</v>
+        <v>12.65987757077596</v>
       </c>
       <c r="D19">
-        <v>4.277070110508963</v>
+        <v>4.57719250892318</v>
       </c>
       <c r="E19">
-        <v>35.65803216222696</v>
+        <v>35.42834412381842</v>
       </c>
       <c r="F19">
-        <v>38.54155171680156</v>
+        <v>24.0396512715819</v>
       </c>
       <c r="G19">
-        <v>2.056978929997164</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>32.82848168297147</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.52158426868387</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.37577495626049</v>
       </c>
       <c r="K19">
-        <v>18.32181668167993</v>
+        <v>15.63409932352109</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.48186938876528</v>
       </c>
       <c r="N19">
-        <v>14.78686387596619</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>11.63673336867697</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.06946869254023</v>
+        <v>16.67277131790374</v>
       </c>
       <c r="C20">
-        <v>13.01477318400638</v>
+        <v>12.91097103614722</v>
       </c>
       <c r="D20">
-        <v>4.238750681908146</v>
+        <v>4.604697300055702</v>
       </c>
       <c r="E20">
-        <v>36.4714215478598</v>
+        <v>36.19398774870397</v>
       </c>
       <c r="F20">
-        <v>39.13785618487298</v>
+        <v>24.32703554488639</v>
       </c>
       <c r="G20">
-        <v>2.052892778175545</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>33.26184179742847</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.601542147853745</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.41646024565969</v>
       </c>
       <c r="K20">
-        <v>18.71317708089984</v>
+        <v>15.681450034396</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.7695702442104</v>
       </c>
       <c r="N20">
-        <v>14.76846329823401</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.55920199987915</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.52692061577363</v>
+        <v>17.70330256271792</v>
       </c>
       <c r="C21">
-        <v>13.92233119838743</v>
+        <v>13.71992615296677</v>
       </c>
       <c r="D21">
-        <v>4.108417155736634</v>
+        <v>4.69217288284619</v>
       </c>
       <c r="E21">
-        <v>39.16362209675558</v>
+        <v>38.70616357314833</v>
       </c>
       <c r="F21">
-        <v>41.14586900384818</v>
+        <v>25.31629830877094</v>
       </c>
       <c r="G21">
-        <v>2.039152843838496</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>34.75739544413899</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.865958107476205</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.56895236523835</v>
       </c>
       <c r="K21">
-        <v>19.99700670612921</v>
+        <v>15.87036906116944</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.70702003313324</v>
       </c>
       <c r="N21">
-        <v>14.71768360541497</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.30211733593641</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.45460727425023</v>
+        <v>18.36489389736969</v>
       </c>
       <c r="C22">
-        <v>14.50186529918298</v>
+        <v>14.21309394906176</v>
       </c>
       <c r="D22">
-        <v>4.021783903576947</v>
+        <v>4.743130897106424</v>
       </c>
       <c r="E22">
-        <v>40.89847768772495</v>
+        <v>40.3060522318839</v>
       </c>
       <c r="F22">
-        <v>42.46303136478168</v>
+        <v>25.99674602535756</v>
       </c>
       <c r="G22">
-        <v>2.030132903575741</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>35.79320168188136</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.035241926514364</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.68703467917812</v>
       </c>
       <c r="K22">
-        <v>20.81447094333056</v>
+        <v>16.03173643546058</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>17.29966097557664</v>
       </c>
       <c r="N22">
-        <v>14.69356593108811</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.13865973779494</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.9616410525777</v>
+        <v>18.03059356067235</v>
       </c>
       <c r="C23">
-        <v>14.19371246051256</v>
+        <v>13.93036598646853</v>
       </c>
       <c r="D23">
-        <v>4.068172783209686</v>
+        <v>4.71155384873534</v>
       </c>
       <c r="E23">
-        <v>39.97441166144614</v>
+        <v>39.45650672778111</v>
       </c>
       <c r="F23">
-        <v>41.75948078929942</v>
+        <v>25.66609601808507</v>
       </c>
       <c r="G23">
-        <v>2.034952901939478</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>35.29841010382808</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.942971926593589</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.6354058018967</v>
       </c>
       <c r="K23">
-        <v>20.38004168915222</v>
+        <v>15.9730849178152</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.98819403972549</v>
       </c>
       <c r="N23">
-        <v>14.70555023445473</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.2300344375438</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.04520378399152</v>
+        <v>16.6818857028065</v>
       </c>
       <c r="C24">
-        <v>12.99969109978598</v>
+        <v>12.86342130196925</v>
       </c>
       <c r="D24">
-        <v>4.240860306328085</v>
+        <v>4.596249854986653</v>
       </c>
       <c r="E24">
-        <v>36.42692031088259</v>
+        <v>36.15305378148384</v>
       </c>
       <c r="F24">
-        <v>39.10509581001739</v>
+        <v>24.36306384987793</v>
       </c>
       <c r="G24">
-        <v>2.053117136753434</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>33.33068070082167</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.593229250956628</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.43274942647724</v>
       </c>
       <c r="K24">
-        <v>18.69180612225714</v>
+        <v>15.72252001283091</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.75832186227785</v>
       </c>
       <c r="N24">
-        <v>14.76943420757254</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.56985028016932</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.86109612844535</v>
+        <v>15.10335621818028</v>
       </c>
       <c r="C25">
-        <v>11.64535778423913</v>
+        <v>11.64671929422412</v>
       </c>
       <c r="D25">
-        <v>4.422596276594894</v>
+        <v>4.465685612596</v>
       </c>
       <c r="E25">
-        <v>32.45991847396441</v>
+        <v>32.3906597126338</v>
       </c>
       <c r="F25">
-        <v>36.25477797293556</v>
+        <v>22.96367331330728</v>
       </c>
       <c r="G25">
-        <v>2.072733744025147</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>31.20949998838943</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.208119392580173</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.23889696719248</v>
       </c>
       <c r="K25">
-        <v>16.76832966930014</v>
+        <v>15.4872729139971</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.33170331864756</v>
       </c>
       <c r="N25">
-        <v>14.87211332130522</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.93914279414453</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.88047398969108</v>
+        <v>13.46703905894282</v>
       </c>
       <c r="C2">
-        <v>10.62843402452475</v>
+        <v>11.08112523609251</v>
       </c>
       <c r="D2">
-        <v>4.353632722786722</v>
+        <v>4.450520799545043</v>
       </c>
       <c r="E2">
-        <v>29.43422581130377</v>
+        <v>29.42949518877004</v>
       </c>
       <c r="F2">
-        <v>22.03257122703227</v>
+        <v>21.16781047956689</v>
       </c>
       <c r="G2">
-        <v>29.81674589316258</v>
+        <v>27.7132723826254</v>
       </c>
       <c r="I2">
-        <v>2.910814088153764</v>
+        <v>2.930353936069392</v>
       </c>
       <c r="J2">
-        <v>10.14615170132703</v>
+        <v>10.32387052621091</v>
       </c>
       <c r="K2">
-        <v>15.41245533731038</v>
+        <v>14.65641991741191</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.83231933641757</v>
       </c>
       <c r="M2">
-        <v>13.20138003494644</v>
+        <v>8.98111477021757</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.12327710418564</v>
       </c>
       <c r="P2">
-        <v>12.22567339882116</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.09365811781955</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.95668060970484</v>
+        <v>12.61574467706931</v>
       </c>
       <c r="C3">
-        <v>9.93327391591273</v>
+        <v>10.29878966322861</v>
       </c>
       <c r="D3">
-        <v>4.281285317853252</v>
+        <v>4.347141425376385</v>
       </c>
       <c r="E3">
-        <v>27.30585834591357</v>
+        <v>27.30881988865218</v>
       </c>
       <c r="F3">
-        <v>21.35977188400166</v>
+        <v>20.59369574251146</v>
       </c>
       <c r="G3">
-        <v>28.79058359359013</v>
+        <v>26.87229487319346</v>
       </c>
       <c r="I3">
-        <v>2.705475330580675</v>
+        <v>2.751815458077102</v>
       </c>
       <c r="J3">
-        <v>10.07727423014582</v>
+        <v>10.24695764426478</v>
       </c>
       <c r="K3">
-        <v>15.33645777091205</v>
+        <v>14.64821734844311</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.93773714790298</v>
       </c>
       <c r="M3">
-        <v>12.37552664972752</v>
+        <v>8.840238297223578</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.3174311549564</v>
       </c>
       <c r="P3">
-        <v>12.41686179174713</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.27781794583226</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.35406319058781</v>
+        <v>12.06018307004619</v>
       </c>
       <c r="C4">
-        <v>9.488315605512261</v>
+        <v>9.796644999351125</v>
       </c>
       <c r="D4">
-        <v>4.235764809285754</v>
+        <v>4.282233030131667</v>
       </c>
       <c r="E4">
-        <v>25.93570280437277</v>
+        <v>25.94278565319858</v>
       </c>
       <c r="F4">
-        <v>20.95002575182903</v>
+        <v>20.24384952962811</v>
       </c>
       <c r="G4">
-        <v>28.16269352476808</v>
+        <v>26.36331270973376</v>
       </c>
       <c r="I4">
-        <v>2.576192720792775</v>
+        <v>2.63947569905089</v>
       </c>
       <c r="J4">
-        <v>10.0397277734944</v>
+        <v>10.20101578054735</v>
       </c>
       <c r="K4">
-        <v>15.29564648485328</v>
+        <v>14.64704865988801</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.00150253726414</v>
       </c>
       <c r="M4">
-        <v>11.84080690013333</v>
+        <v>8.778113437084547</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.79548794081873</v>
       </c>
       <c r="P4">
-        <v>12.53575438298525</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.3923993121146</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.09375643383961</v>
+        <v>11.81990739262645</v>
       </c>
       <c r="C5">
-        <v>9.30989572318853</v>
+        <v>9.594148607164318</v>
       </c>
       <c r="D5">
-        <v>4.21808477153871</v>
+        <v>4.256657892483005</v>
       </c>
       <c r="E5">
-        <v>25.36102351359386</v>
+        <v>25.36966000183904</v>
       </c>
       <c r="F5">
-        <v>20.77406695225973</v>
+        <v>20.09238444070446</v>
       </c>
       <c r="G5">
-        <v>27.88943584705924</v>
+        <v>26.14009698514696</v>
       </c>
       <c r="I5">
-        <v>2.523249286261874</v>
+        <v>2.593845003670924</v>
       </c>
       <c r="J5">
-        <v>10.02235603286806</v>
+        <v>10.17952259164134</v>
       </c>
       <c r="K5">
-        <v>15.27291064274731</v>
+        <v>14.64045244954648</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.02126399911928</v>
       </c>
       <c r="M5">
-        <v>11.6150119421606</v>
+        <v>8.754303617257603</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.57507178407846</v>
       </c>
       <c r="P5">
-        <v>12.58340507092563</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.43851954015983</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.04292373628748</v>
+        <v>11.77268222063595</v>
       </c>
       <c r="C6">
-        <v>9.289161981659813</v>
+        <v>9.569544046372441</v>
       </c>
       <c r="D6">
-        <v>4.21652646176801</v>
+        <v>4.253881992534138</v>
       </c>
       <c r="E6">
-        <v>25.26447491080122</v>
+        <v>25.27337210505334</v>
       </c>
       <c r="F6">
-        <v>20.73268018704471</v>
+        <v>20.05544104776905</v>
       </c>
       <c r="G6">
-        <v>27.82184638144879</v>
+        <v>26.08140122330941</v>
       </c>
       <c r="I6">
-        <v>2.515321951491958</v>
+        <v>2.587521355544382</v>
       </c>
       <c r="J6">
-        <v>10.0155931570712</v>
+        <v>10.17219724895153</v>
       </c>
       <c r="K6">
-        <v>15.26002619507526</v>
+        <v>14.63080950193511</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.01722752296829</v>
       </c>
       <c r="M6">
-        <v>11.57595189692874</v>
+        <v>8.744983833159207</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.53695853696106</v>
       </c>
       <c r="P6">
-        <v>12.5898749325597</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.44501416645035</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.33174433763796</v>
+        <v>12.03452545191947</v>
       </c>
       <c r="C7">
-        <v>9.51038053149987</v>
+        <v>9.808321155072139</v>
       </c>
       <c r="D7">
-        <v>4.239339561301994</v>
+        <v>4.288725258220862</v>
       </c>
       <c r="E7">
-        <v>25.92764017002085</v>
+        <v>25.93450561087847</v>
       </c>
       <c r="F7">
-        <v>20.91455542657629</v>
+        <v>20.18914185467669</v>
       </c>
       <c r="G7">
-        <v>28.09884040552658</v>
+        <v>26.38532449752685</v>
       </c>
       <c r="I7">
-        <v>2.577530041704044</v>
+        <v>2.641221268362115</v>
       </c>
       <c r="J7">
-        <v>10.02873547065202</v>
+        <v>10.14209290333585</v>
       </c>
       <c r="K7">
-        <v>15.2702618797943</v>
+        <v>14.61368280993646</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.97400685544454</v>
       </c>
       <c r="M7">
-        <v>11.83472056062999</v>
+        <v>8.75484520345994</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.78346045533111</v>
       </c>
       <c r="P7">
-        <v>12.53242843333182</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.38835575066133</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.54622684127764</v>
+        <v>13.14500335935941</v>
       </c>
       <c r="C8">
-        <v>10.42235350600179</v>
+        <v>10.81399579206825</v>
       </c>
       <c r="D8">
-        <v>4.333994661622524</v>
+        <v>4.429774969908642</v>
       </c>
       <c r="E8">
-        <v>28.71278909135502</v>
+        <v>28.7099562362426</v>
       </c>
       <c r="F8">
-        <v>21.75777160371604</v>
+        <v>20.8623407197357</v>
       </c>
       <c r="G8">
-        <v>29.38621970021841</v>
+        <v>27.61638997804216</v>
       </c>
       <c r="I8">
-        <v>2.8425715718695</v>
+        <v>2.87038873515957</v>
       </c>
       <c r="J8">
-        <v>10.10730916527707</v>
+        <v>10.12572825667253</v>
       </c>
       <c r="K8">
-        <v>15.35205617081491</v>
+        <v>14.58980732308835</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.81947075540147</v>
       </c>
       <c r="M8">
-        <v>12.91856379390643</v>
+        <v>8.88001621177718</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.82849447401009</v>
       </c>
       <c r="P8">
-        <v>12.28623687940827</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.14843177217776</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.6794640843186</v>
+        <v>15.10821944052118</v>
       </c>
       <c r="C9">
-        <v>12.0299860752558</v>
+        <v>12.6144679834631</v>
       </c>
       <c r="D9">
-        <v>4.503552150569661</v>
+        <v>4.67658797439138</v>
       </c>
       <c r="E9">
-        <v>33.6869487920304</v>
+        <v>33.66030808311935</v>
       </c>
       <c r="F9">
-        <v>23.48737233122627</v>
+        <v>22.33008629550699</v>
       </c>
       <c r="G9">
-        <v>32.019370188766</v>
+        <v>29.87091380073313</v>
       </c>
       <c r="I9">
-        <v>3.336345825079003</v>
+        <v>3.298257333663485</v>
       </c>
       <c r="J9">
-        <v>10.31973158519542</v>
+        <v>10.29688334462809</v>
       </c>
       <c r="K9">
-        <v>15.60603181558302</v>
+        <v>14.65348359808055</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.57032428295506</v>
       </c>
       <c r="M9">
-        <v>14.83043311962393</v>
+        <v>9.371286045842133</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.68996973262285</v>
       </c>
       <c r="P9">
-        <v>11.82076265873976</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.69910067188137</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.07326981524001</v>
+        <v>16.36922491211023</v>
       </c>
       <c r="C10">
-        <v>13.13785413640865</v>
+        <v>13.80038878613069</v>
       </c>
       <c r="D10">
-        <v>4.623836998664936</v>
+        <v>4.867237778931879</v>
       </c>
       <c r="E10">
-        <v>37.06508131527485</v>
+        <v>37.01414861114319</v>
       </c>
       <c r="F10">
-        <v>24.74756377537349</v>
+        <v>23.29561962285651</v>
       </c>
       <c r="G10">
-        <v>33.9204740846296</v>
+        <v>31.94704942874069</v>
       </c>
       <c r="I10">
-        <v>3.687317966447003</v>
+        <v>3.599967368627647</v>
       </c>
       <c r="J10">
-        <v>10.49699123334878</v>
+        <v>10.1599712525776</v>
       </c>
       <c r="K10">
-        <v>15.81422161853921</v>
+        <v>14.65820807625441</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.33739929701007</v>
       </c>
       <c r="M10">
-        <v>16.10256566766026</v>
+        <v>9.780749930484401</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.8989276357984</v>
       </c>
       <c r="P10">
-        <v>11.481389617947</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.36593375392376</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.64999765887271</v>
+        <v>16.85655145045832</v>
       </c>
       <c r="C11">
-        <v>13.65320182482185</v>
+        <v>14.27031897341352</v>
       </c>
       <c r="D11">
-        <v>4.683327032829734</v>
+        <v>4.986685553305042</v>
       </c>
       <c r="E11">
-        <v>38.54635806655907</v>
+        <v>38.47961913053295</v>
       </c>
       <c r="F11">
-        <v>25.27578137317081</v>
+        <v>23.51272988377117</v>
       </c>
       <c r="G11">
-        <v>34.7026155743651</v>
+        <v>33.54181761265421</v>
       </c>
       <c r="I11">
-        <v>3.847161525743176</v>
+        <v>3.734306038690268</v>
       </c>
       <c r="J11">
-        <v>10.56736506894607</v>
+        <v>9.636414898197653</v>
       </c>
       <c r="K11">
-        <v>15.87805107383289</v>
+        <v>14.53387762142702</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.14375165992442</v>
       </c>
       <c r="M11">
-        <v>16.64962322003966</v>
+        <v>9.872654363464454</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.37106054468296</v>
       </c>
       <c r="P11">
-        <v>11.32173632841388</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.20114712482276</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.8757364277616</v>
+        <v>17.04474939302337</v>
       </c>
       <c r="C12">
-        <v>13.83015320842972</v>
+        <v>14.42087968345152</v>
       </c>
       <c r="D12">
-        <v>4.702303294860745</v>
+        <v>5.03165126247255</v>
       </c>
       <c r="E12">
-        <v>39.10035744004261</v>
+        <v>39.02691904695734</v>
       </c>
       <c r="F12">
-        <v>25.50018979529186</v>
+        <v>23.59727463277558</v>
       </c>
       <c r="G12">
-        <v>35.04199201809068</v>
+        <v>34.27450790374996</v>
       </c>
       <c r="I12">
-        <v>3.906119088638901</v>
+        <v>3.782212963004346</v>
       </c>
       <c r="J12">
-        <v>10.60382845915218</v>
+        <v>9.397459696658656</v>
       </c>
       <c r="K12">
-        <v>15.92441471854157</v>
+        <v>14.49472702446699</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.07601171619697</v>
       </c>
       <c r="M12">
-        <v>16.85492670576489</v>
+        <v>9.915723319570725</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.54270019739608</v>
       </c>
       <c r="P12">
-        <v>11.26437412097118</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.13971076689075</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.82974494888823</v>
+        <v>17.00690920092168</v>
       </c>
       <c r="C13">
-        <v>13.78906320615929</v>
+        <v>14.38584542213437</v>
       </c>
       <c r="D13">
-        <v>4.697558010262547</v>
+        <v>5.021092196790578</v>
       </c>
       <c r="E13">
-        <v>38.98145425605849</v>
+        <v>38.90947903958152</v>
       </c>
       <c r="F13">
-        <v>25.45668642836612</v>
+        <v>23.58466782262664</v>
       </c>
       <c r="G13">
-        <v>34.97750852344658</v>
+        <v>34.12126645006698</v>
       </c>
       <c r="I13">
-        <v>3.893128666494059</v>
+        <v>3.771420872106567</v>
       </c>
       <c r="J13">
-        <v>10.59770204019692</v>
+        <v>9.452405389281784</v>
       </c>
       <c r="K13">
-        <v>15.91855550461867</v>
+        <v>14.5074849107261</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.09344245764949</v>
       </c>
       <c r="M13">
-        <v>16.81129524117392</v>
+        <v>9.910100903794142</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.50652812614261</v>
       </c>
       <c r="P13">
-        <v>11.27734069365631</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.15332632777993</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.66969834710661</v>
+        <v>16.87319545214049</v>
       </c>
       <c r="C14">
-        <v>13.66648519175913</v>
+        <v>14.28159885523429</v>
       </c>
       <c r="D14">
-        <v>4.684608435849384</v>
+        <v>4.990010383294606</v>
       </c>
       <c r="E14">
-        <v>38.59211891838488</v>
+        <v>38.52483828932492</v>
       </c>
       <c r="F14">
-        <v>25.29630616847224</v>
+        <v>23.52210102204989</v>
       </c>
       <c r="G14">
-        <v>34.73421667842712</v>
+        <v>33.60395628587817</v>
       </c>
       <c r="I14">
-        <v>3.851880711629917</v>
+        <v>3.738038379770709</v>
       </c>
       <c r="J14">
-        <v>10.57109916328206</v>
+        <v>9.618315315145006</v>
       </c>
       <c r="K14">
-        <v>15.88362014695953</v>
+        <v>14.5325123561332</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.1394043276119</v>
       </c>
       <c r="M14">
-        <v>16.66676759440453</v>
+        <v>9.877760386840727</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.38553043913362</v>
       </c>
       <c r="P14">
-        <v>11.31727748399534</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.1962618692923</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.56621030328079</v>
+        <v>16.7855678453085</v>
       </c>
       <c r="C15">
-        <v>13.59727414577283</v>
+        <v>14.2225085529259</v>
       </c>
       <c r="D15">
-        <v>4.677966832867001</v>
+        <v>4.972829454676872</v>
       </c>
       <c r="E15">
-        <v>38.35252005739924</v>
+        <v>38.28804560604028</v>
       </c>
       <c r="F15">
-        <v>25.18844963813002</v>
+        <v>23.47172914229591</v>
       </c>
       <c r="G15">
-        <v>34.56800853259445</v>
+        <v>33.28158245338707</v>
       </c>
       <c r="I15">
-        <v>3.827274855215135</v>
+        <v>3.71860561415856</v>
       </c>
       <c r="J15">
-        <v>10.55142828127302</v>
+        <v>9.710855181484506</v>
       </c>
       <c r="K15">
-        <v>15.85412072353357</v>
+        <v>14.53879321674205</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.16155762714006</v>
       </c>
       <c r="M15">
-        <v>16.57691112533835</v>
+        <v>9.850391842058244</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>16.30945253670464</v>
       </c>
       <c r="P15">
-        <v>11.34053361264526</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.22172267233956</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.99343201232776</v>
+        <v>16.29610735599932</v>
       </c>
       <c r="C16">
-        <v>13.15714455323483</v>
+        <v>13.82194686424642</v>
       </c>
       <c r="D16">
-        <v>4.631048113508601</v>
+        <v>4.871768367946214</v>
       </c>
       <c r="E16">
-        <v>36.96577287156882</v>
+        <v>36.9159294565081</v>
       </c>
       <c r="F16">
-        <v>24.6308007336975</v>
+        <v>23.19912456823719</v>
       </c>
       <c r="G16">
-        <v>33.72247736326333</v>
+        <v>31.71132446076329</v>
       </c>
       <c r="I16">
-        <v>3.681770305938175</v>
+        <v>3.599223442730078</v>
       </c>
       <c r="J16">
-        <v>10.46283792333307</v>
+        <v>10.16079085309437</v>
       </c>
       <c r="K16">
-        <v>15.74018887696836</v>
+        <v>14.60048097844683</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.30540398974819</v>
       </c>
       <c r="M16">
-        <v>16.05923812959576</v>
+        <v>9.718931992104029</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.86008047830225</v>
       </c>
       <c r="P16">
-        <v>11.48155639435153</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.37000709204103</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.63306286784884</v>
+        <v>15.98092821527779</v>
       </c>
       <c r="C17">
-        <v>12.88290801969712</v>
+        <v>13.55549492340698</v>
       </c>
       <c r="D17">
-        <v>4.601837672987756</v>
+        <v>4.815284650936782</v>
       </c>
       <c r="E17">
-        <v>36.10141021542379</v>
+        <v>36.05939354306538</v>
       </c>
       <c r="F17">
-        <v>24.28863122291854</v>
+        <v>22.99453748156103</v>
       </c>
       <c r="G17">
-        <v>33.20297342983237</v>
+        <v>30.90008547817201</v>
       </c>
       <c r="I17">
-        <v>3.592178928564547</v>
+        <v>3.524745857135668</v>
       </c>
       <c r="J17">
-        <v>10.41021421104866</v>
+        <v>10.34509433163955</v>
       </c>
       <c r="K17">
-        <v>15.67268420376158</v>
+        <v>14.61923285820193</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.38041645319026</v>
       </c>
       <c r="M17">
-        <v>15.73456795016714</v>
+        <v>9.625182876365979</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.56791163726207</v>
       </c>
       <c r="P17">
-        <v>11.56818654171903</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.45904963638069</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.43539106658037</v>
+        <v>15.80664087376972</v>
       </c>
       <c r="C18">
-        <v>12.70690453028485</v>
+        <v>13.37759415151601</v>
       </c>
       <c r="D18">
-        <v>4.581493853109444</v>
+        <v>4.781136108610816</v>
       </c>
       <c r="E18">
-        <v>35.5995063693418</v>
+        <v>35.56154798054849</v>
       </c>
       <c r="F18">
-        <v>24.11725539075719</v>
+        <v>22.88790052488815</v>
       </c>
       <c r="G18">
-        <v>32.94940855775639</v>
+        <v>30.53318122455886</v>
       </c>
       <c r="I18">
-        <v>3.538157641375407</v>
+        <v>3.477915556713602</v>
       </c>
       <c r="J18">
-        <v>10.38962335853831</v>
+        <v>10.42503577844298</v>
       </c>
       <c r="K18">
-        <v>15.65603012991783</v>
+        <v>14.64292107734154</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.43229677818198</v>
       </c>
       <c r="M18">
-        <v>15.5473784083192</v>
+        <v>9.583401402853168</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.39583528373107</v>
       </c>
       <c r="P18">
-        <v>11.6211788647311</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.51162947993359</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.35793765456593</v>
+        <v>15.73704939118661</v>
       </c>
       <c r="C19">
-        <v>12.65987757077596</v>
+        <v>13.32902017153708</v>
       </c>
       <c r="D19">
-        <v>4.57719250892318</v>
+        <v>4.772670507824291</v>
       </c>
       <c r="E19">
-        <v>35.42834412381842</v>
+        <v>35.39172575672187</v>
       </c>
       <c r="F19">
-        <v>24.0396512715819</v>
+        <v>22.83058809047303</v>
       </c>
       <c r="G19">
-        <v>32.82848168297147</v>
+        <v>30.38414805404355</v>
       </c>
       <c r="I19">
-        <v>3.52158426868387</v>
+        <v>3.464583728128638</v>
       </c>
       <c r="J19">
-        <v>10.37577495626049</v>
+        <v>10.43982003963729</v>
       </c>
       <c r="K19">
-        <v>15.63409932352109</v>
+        <v>14.63466251449204</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.43855910161924</v>
       </c>
       <c r="M19">
-        <v>15.48186938876528</v>
+        <v>9.555752143707915</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.33491800673341</v>
       </c>
       <c r="P19">
-        <v>11.63673336867697</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.52768971076497</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.67277131790374</v>
+        <v>16.01602015490364</v>
       </c>
       <c r="C20">
-        <v>12.91097103614722</v>
+        <v>13.5833496766291</v>
       </c>
       <c r="D20">
-        <v>4.604697300055702</v>
+        <v>4.820812500997443</v>
       </c>
       <c r="E20">
-        <v>36.19398774870397</v>
+        <v>36.15117663807612</v>
       </c>
       <c r="F20">
-        <v>24.32703554488639</v>
+        <v>23.01963131351024</v>
       </c>
       <c r="G20">
-        <v>33.26184179742847</v>
+        <v>30.98416426838244</v>
       </c>
       <c r="I20">
-        <v>3.601542147853745</v>
+        <v>3.532445275710182</v>
       </c>
       <c r="J20">
-        <v>10.41646024565969</v>
+        <v>10.32966837177981</v>
       </c>
       <c r="K20">
-        <v>15.681450034396</v>
+        <v>14.61947728048004</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.37398907375155</v>
       </c>
       <c r="M20">
-        <v>15.7695702442104</v>
+        <v>9.636931125145962</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.59980657186186</v>
       </c>
       <c r="P20">
-        <v>11.55920199987915</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.44980703158353</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.70330256271792</v>
+        <v>16.88813823500541</v>
       </c>
       <c r="C21">
-        <v>13.71992615296677</v>
+        <v>14.30216673627605</v>
       </c>
       <c r="D21">
-        <v>4.69217288284619</v>
+        <v>5.013134110323746</v>
       </c>
       <c r="E21">
-        <v>38.70616357314833</v>
+        <v>38.6364512651745</v>
       </c>
       <c r="F21">
-        <v>25.31629830877094</v>
+        <v>23.45053783252579</v>
       </c>
       <c r="G21">
-        <v>34.75739544413899</v>
+        <v>33.96683705225761</v>
       </c>
       <c r="I21">
-        <v>3.865958107476205</v>
+        <v>3.749220909146318</v>
       </c>
       <c r="J21">
-        <v>10.56895236523835</v>
+        <v>9.408766863550202</v>
       </c>
       <c r="K21">
-        <v>15.87036906116944</v>
+        <v>14.46975362738926</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.08926763196244</v>
       </c>
       <c r="M21">
-        <v>16.70702003313324</v>
+        <v>9.839600949299465</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.402394173225</v>
       </c>
       <c r="P21">
-        <v>11.30211733593641</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.17810442767587</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.36489389736969</v>
+        <v>17.44547713682952</v>
       </c>
       <c r="C22">
-        <v>14.21309394906176</v>
+        <v>14.73009304901632</v>
       </c>
       <c r="D22">
-        <v>4.743130897106424</v>
+        <v>5.136209921151568</v>
       </c>
       <c r="E22">
-        <v>40.3060522318839</v>
+        <v>40.21665532294684</v>
       </c>
       <c r="F22">
-        <v>25.99674602535756</v>
+        <v>23.74765346726385</v>
       </c>
       <c r="G22">
-        <v>35.79320168188136</v>
+        <v>36.04671134573623</v>
       </c>
       <c r="I22">
-        <v>4.035241926514364</v>
+        <v>3.886206438213833</v>
       </c>
       <c r="J22">
-        <v>10.68703467917812</v>
+        <v>8.795821941451315</v>
       </c>
       <c r="K22">
-        <v>16.03173643546058</v>
+        <v>14.39026829980244</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.91553416146419</v>
       </c>
       <c r="M22">
-        <v>17.29966097557664</v>
+        <v>9.997282165712654</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.90423605865683</v>
       </c>
       <c r="P22">
-        <v>11.13865973779494</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.00327606990675</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.03059356067235</v>
+        <v>17.17412317146881</v>
       </c>
       <c r="C23">
-        <v>13.93036598646853</v>
+        <v>14.50153700922873</v>
       </c>
       <c r="D23">
-        <v>4.71155384873534</v>
+        <v>5.058431755676469</v>
       </c>
       <c r="E23">
-        <v>39.45650672778111</v>
+        <v>39.37851073934055</v>
       </c>
       <c r="F23">
-        <v>25.66609601808507</v>
+        <v>23.66619900856725</v>
       </c>
       <c r="G23">
-        <v>35.29841010382808</v>
+        <v>34.80808463574848</v>
       </c>
       <c r="I23">
-        <v>3.942971926593589</v>
+        <v>3.810971370470567</v>
       </c>
       <c r="J23">
-        <v>10.6354058018967</v>
+        <v>9.236944004968223</v>
       </c>
       <c r="K23">
-        <v>15.9730849178152</v>
+        <v>14.48294503185238</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.04116327927937</v>
       </c>
       <c r="M23">
-        <v>16.98819403972549</v>
+        <v>9.955581246573967</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.65272964756815</v>
       </c>
       <c r="P23">
-        <v>11.2300344375438</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.10124487454166</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.6818857028065</v>
+        <v>16.02635465287915</v>
       </c>
       <c r="C24">
-        <v>12.86342130196925</v>
+        <v>13.53548904529091</v>
       </c>
       <c r="D24">
-        <v>4.596249854986653</v>
+        <v>4.8106994444739</v>
       </c>
       <c r="E24">
-        <v>36.15305378148384</v>
+        <v>36.11051212995975</v>
       </c>
       <c r="F24">
-        <v>24.36306384987793</v>
+        <v>23.05987195007131</v>
       </c>
       <c r="G24">
-        <v>33.33068070082167</v>
+        <v>31.03923527083013</v>
       </c>
       <c r="I24">
-        <v>3.593229250956628</v>
+        <v>3.522645880191144</v>
       </c>
       <c r="J24">
-        <v>10.43274942647724</v>
+        <v>10.35406961889257</v>
       </c>
       <c r="K24">
-        <v>15.72252001283091</v>
+        <v>14.66085046416773</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.40538723935102</v>
       </c>
       <c r="M24">
-        <v>15.75832186227785</v>
+        <v>9.666725257705105</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.5897689634806</v>
       </c>
       <c r="P24">
-        <v>11.56985028016932</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.45835555620622</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.10335621818028</v>
+        <v>14.58215277047456</v>
       </c>
       <c r="C25">
-        <v>11.64671929422412</v>
+        <v>12.19517653894125</v>
       </c>
       <c r="D25">
-        <v>4.465685612596</v>
+        <v>4.614777283263416</v>
       </c>
       <c r="E25">
-        <v>32.3906597126338</v>
+        <v>32.37170867358234</v>
       </c>
       <c r="F25">
-        <v>22.96367331330728</v>
+        <v>21.90605068571444</v>
       </c>
       <c r="G25">
-        <v>31.20949998838943</v>
+        <v>29.0508896071827</v>
       </c>
       <c r="I25">
-        <v>3.208119392580173</v>
+        <v>3.190222604653729</v>
       </c>
       <c r="J25">
-        <v>10.23889696719248</v>
+        <v>10.2984538730421</v>
       </c>
       <c r="K25">
-        <v>15.4872729139971</v>
+        <v>14.60498435071463</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.61876975863739</v>
       </c>
       <c r="M25">
-        <v>14.33170331864756</v>
+        <v>9.19671452635485</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.21219631119719</v>
       </c>
       <c r="P25">
-        <v>11.93914279414453</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.81676863466899</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
